--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Lrpap1-Lrp1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Lrpap1-Lrp1.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>8.995514</v>
+        <v>10.1467555</v>
       </c>
       <c r="H2">
-        <v>17.991028</v>
+        <v>20.293511</v>
       </c>
       <c r="I2">
-        <v>0.1370970087225826</v>
+        <v>0.1516003594919049</v>
       </c>
       <c r="J2">
-        <v>0.09932846147431176</v>
+        <v>0.1102643619993968</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.019046</v>
+        <v>10.836393</v>
       </c>
       <c r="N2">
-        <v>4.038092</v>
+        <v>21.672786</v>
       </c>
       <c r="O2">
-        <v>0.003975353327590414</v>
+        <v>0.01846862257356514</v>
       </c>
       <c r="P2">
-        <v>0.002707057536954368</v>
+        <v>0.01262296693390161</v>
       </c>
       <c r="Q2">
-        <v>18.162356559644</v>
+        <v>109.9542302729115</v>
       </c>
       <c r="R2">
-        <v>72.649426238576</v>
+        <v>439.8169210916461</v>
       </c>
       <c r="S2">
-        <v>0.0005450090498280107</v>
+        <v>0.002799849821472784</v>
       </c>
       <c r="T2">
-        <v>0.0002688878602681172</v>
+        <v>0.001391863395506142</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>8.995514</v>
+        <v>10.1467555</v>
       </c>
       <c r="H3">
-        <v>17.991028</v>
+        <v>20.293511</v>
       </c>
       <c r="I3">
-        <v>0.1370970087225826</v>
+        <v>0.1516003594919049</v>
       </c>
       <c r="J3">
-        <v>0.09932846147431176</v>
+        <v>0.1102643619993968</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>419.0844499999999</v>
       </c>
       <c r="O3">
-        <v>0.2750488370661026</v>
+        <v>0.2380839126543345</v>
       </c>
       <c r="P3">
-        <v>0.2809459811695414</v>
+        <v>0.2440890227431923</v>
       </c>
       <c r="Q3">
-        <v>1256.626679052433</v>
+        <v>1417.449149333991</v>
       </c>
       <c r="R3">
-        <v>7539.760074314599</v>
+        <v>8504.69489600395</v>
       </c>
       <c r="S3">
-        <v>0.03770837281438767</v>
+        <v>0.0360936067476364</v>
       </c>
       <c r="T3">
-        <v>0.02790593206696151</v>
+        <v>0.02691432036383435</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>8.995514</v>
+        <v>10.1467555</v>
       </c>
       <c r="H4">
-        <v>17.991028</v>
+        <v>20.293511</v>
       </c>
       <c r="I4">
-        <v>0.1370970087225826</v>
+        <v>0.1516003594919049</v>
       </c>
       <c r="J4">
-        <v>0.09932846147431176</v>
+        <v>0.1102643619993968</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>186.3548536666667</v>
+        <v>150.12088</v>
       </c>
       <c r="N4">
-        <v>559.064561</v>
+        <v>450.36264</v>
       </c>
       <c r="O4">
-        <v>0.3669190239530987</v>
+        <v>0.2558532043948076</v>
       </c>
       <c r="P4">
-        <v>0.3747858972750336</v>
+        <v>0.2623065033256284</v>
       </c>
       <c r="Q4">
-        <v>1676.357695126452</v>
+        <v>1523.23986480484</v>
       </c>
       <c r="R4">
-        <v>10058.14617075871</v>
+        <v>9139.439188829041</v>
       </c>
       <c r="S4">
-        <v>0.05030350062737946</v>
+        <v>0.03878743776340866</v>
       </c>
       <c r="T4">
-        <v>0.03722690655859855</v>
+        <v>0.02892305923749306</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>8.995514</v>
+        <v>10.1467555</v>
       </c>
       <c r="H5">
-        <v>17.991028</v>
+        <v>20.293511</v>
       </c>
       <c r="I5">
-        <v>0.1370970087225826</v>
+        <v>0.1516003594919049</v>
       </c>
       <c r="J5">
-        <v>0.09932846147431176</v>
+        <v>0.1102643619993968</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>29.9633245</v>
+        <v>32.469223</v>
       </c>
       <c r="N5">
-        <v>59.926649</v>
+        <v>64.938446</v>
       </c>
       <c r="O5">
-        <v>0.05899558591371686</v>
+        <v>0.05533777012737728</v>
       </c>
       <c r="P5">
-        <v>0.04017364805949665</v>
+        <v>0.03782235733776705</v>
       </c>
       <c r="Q5">
-        <v>269.535505026293</v>
+        <v>329.4572670559766</v>
       </c>
       <c r="R5">
-        <v>1078.142020105172</v>
+        <v>1317.829068223906</v>
       </c>
       <c r="S5">
-        <v>0.008088118356606711</v>
+        <v>0.008389225844790791</v>
       </c>
       <c r="T5">
-        <v>0.003990386653560272</v>
+        <v>0.004170458101162086</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>8.995514</v>
+        <v>10.1467555</v>
       </c>
       <c r="H6">
-        <v>17.991028</v>
+        <v>20.293511</v>
       </c>
       <c r="I6">
-        <v>0.1370970087225826</v>
+        <v>0.1516003594919049</v>
       </c>
       <c r="J6">
-        <v>0.09932846147431176</v>
+        <v>0.1102643619993968</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>6.253715333333333</v>
+        <v>52.09024033333333</v>
       </c>
       <c r="N6">
-        <v>18.761146</v>
+        <v>156.270721</v>
       </c>
       <c r="O6">
-        <v>0.01231310631861278</v>
+        <v>0.08877815602319267</v>
       </c>
       <c r="P6">
-        <v>0.0125771036621259</v>
+        <v>0.09101737745760805</v>
       </c>
       <c r="Q6">
-        <v>56.25538383301466</v>
+        <v>528.5469325985719</v>
       </c>
       <c r="R6">
-        <v>337.532302998088</v>
+        <v>3171.281595591431</v>
       </c>
       <c r="S6">
-        <v>0.001688090044364943</v>
+        <v>0.01345880036814443</v>
       </c>
       <c r="T6">
-        <v>0.001249264356561898</v>
+        <v>0.01003597305622143</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>8.995514</v>
+        <v>10.1467555</v>
       </c>
       <c r="H7">
-        <v>17.991028</v>
+        <v>20.293511</v>
       </c>
       <c r="I7">
-        <v>0.1370970087225826</v>
+        <v>0.1516003594919049</v>
       </c>
       <c r="J7">
-        <v>0.09932846147431176</v>
+        <v>0.1102643619993968</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>143.6051993333333</v>
+        <v>201.5345866666667</v>
       </c>
       <c r="N7">
-        <v>430.815598</v>
+        <v>604.60376</v>
       </c>
       <c r="O7">
-        <v>0.2827480934208786</v>
+        <v>0.3434783342267227</v>
       </c>
       <c r="P7">
-        <v>0.2888103122968479</v>
+        <v>0.3521417722019025</v>
       </c>
       <c r="Q7">
-        <v>1291.802581075791</v>
+        <v>2044.922175700227</v>
       </c>
       <c r="R7">
-        <v>7750.815486454744</v>
+        <v>12269.53305420136</v>
       </c>
       <c r="S7">
-        <v>0.0387639178300158</v>
+        <v>0.05207143894645183</v>
       </c>
       <c r="T7">
-        <v>0.02868708397836141</v>
+        <v>0.03882868784517968</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>26.900675</v>
       </c>
       <c r="I8">
-        <v>0.1366607872590108</v>
+        <v>0.1339722830802056</v>
       </c>
       <c r="J8">
-        <v>0.1485186205241013</v>
+        <v>0.1461642475877201</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>2.019046</v>
+        <v>10.836393</v>
       </c>
       <c r="N8">
-        <v>4.038092</v>
+        <v>21.672786</v>
       </c>
       <c r="O8">
-        <v>0.003975353327590414</v>
+        <v>0.01846862257356514</v>
       </c>
       <c r="P8">
-        <v>0.002707057536954368</v>
+        <v>0.01262296693390161</v>
       </c>
       <c r="Q8">
-        <v>18.10456675201667</v>
+        <v>97.16876208842501</v>
       </c>
       <c r="R8">
-        <v>108.6274005121</v>
+        <v>583.0125725305501</v>
       </c>
       <c r="S8">
-        <v>0.0005432749153812343</v>
+        <v>0.002474283531527143</v>
       </c>
       <c r="T8">
-        <v>0.0004020484510678341</v>
+        <v>0.001845026464218399</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>26.900675</v>
       </c>
       <c r="I9">
-        <v>0.1366607872590108</v>
+        <v>0.1339722830802056</v>
       </c>
       <c r="J9">
-        <v>0.1485186205241013</v>
+        <v>0.1461642475877201</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>419.0844499999999</v>
       </c>
       <c r="O9">
-        <v>0.2750488370661026</v>
+        <v>0.2380839126543345</v>
       </c>
       <c r="P9">
-        <v>0.2809459811695414</v>
+        <v>0.2440890227431923</v>
       </c>
       <c r="Q9">
         <v>1252.628287444861</v>
@@ -1013,10 +1013,10 @@
         <v>11273.65458700375</v>
       </c>
       <c r="S9">
-        <v>0.03758839060812897</v>
+        <v>0.03189664534296944</v>
       </c>
       <c r="T9">
-        <v>0.04172570956509043</v>
+        <v>0.03567708835368061</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>26.900675</v>
       </c>
       <c r="I10">
-        <v>0.1366607872590108</v>
+        <v>0.1339722830802056</v>
       </c>
       <c r="J10">
-        <v>0.1485186205241013</v>
+        <v>0.1461642475877201</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>186.3548536666667</v>
+        <v>150.12088</v>
       </c>
       <c r="N10">
-        <v>559.064561</v>
+        <v>450.36264</v>
       </c>
       <c r="O10">
-        <v>0.3669190239530987</v>
+        <v>0.2558532043948076</v>
       </c>
       <c r="P10">
-        <v>0.3747858972750336</v>
+        <v>0.2623065033256284</v>
       </c>
       <c r="Q10">
-        <v>1671.02378438652</v>
+        <v>1346.117667864667</v>
       </c>
       <c r="R10">
-        <v>15039.21405947868</v>
+        <v>12115.059010782</v>
       </c>
       <c r="S10">
-        <v>0.05014344267373831</v>
+        <v>0.03427723792615886</v>
       </c>
       <c r="T10">
-        <v>0.05566268445517553</v>
+        <v>0.03833983269595628</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>26.900675</v>
       </c>
       <c r="I11">
-        <v>0.1366607872590108</v>
+        <v>0.1339722830802056</v>
       </c>
       <c r="J11">
-        <v>0.1485186205241013</v>
+        <v>0.1461642475877201</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>29.9633245</v>
+        <v>32.469223</v>
       </c>
       <c r="N11">
-        <v>59.926649</v>
+        <v>64.938446</v>
       </c>
       <c r="O11">
-        <v>0.05899558591371686</v>
+        <v>0.05533777012737728</v>
       </c>
       <c r="P11">
-        <v>0.04017364805949665</v>
+        <v>0.03782235733776705</v>
       </c>
       <c r="Q11">
-        <v>268.6778847646792</v>
+        <v>291.1480051418417</v>
       </c>
       <c r="R11">
-        <v>1612.067308588075</v>
+        <v>1746.88803085105</v>
       </c>
       <c r="S11">
-        <v>0.008062383215775156</v>
+        <v>0.007413727404532331</v>
       </c>
       <c r="T11">
-        <v>0.005966534791217182</v>
+        <v>0.005528276402268606</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>26.900675</v>
       </c>
       <c r="I12">
-        <v>0.1366607872590108</v>
+        <v>0.1339722830802056</v>
       </c>
       <c r="J12">
-        <v>0.1485186205241013</v>
+        <v>0.1461642475877201</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>6.253715333333333</v>
+        <v>52.09024033333333</v>
       </c>
       <c r="N12">
-        <v>18.761146</v>
+        <v>156.270721</v>
       </c>
       <c r="O12">
-        <v>0.01231310631861278</v>
+        <v>0.08877815602319267</v>
       </c>
       <c r="P12">
-        <v>0.0125771036621259</v>
+        <v>0.09101737745760805</v>
       </c>
       <c r="Q12">
-        <v>56.07638790817222</v>
+        <v>467.0875419596305</v>
       </c>
       <c r="R12">
-        <v>504.68749117355</v>
+        <v>4203.787877636674</v>
       </c>
       <c r="S12">
-        <v>0.001682718803105523</v>
+        <v>0.01189381225007782</v>
       </c>
       <c r="T12">
-        <v>0.001867934086087561</v>
+        <v>0.0133034864934988</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>26.900675</v>
       </c>
       <c r="I13">
-        <v>0.1366607872590108</v>
+        <v>0.1339722830802056</v>
       </c>
       <c r="J13">
-        <v>0.1485186205241013</v>
+        <v>0.1461642475877201</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>143.6051993333333</v>
+        <v>201.5345866666667</v>
       </c>
       <c r="N13">
-        <v>430.815598</v>
+        <v>604.60376</v>
       </c>
       <c r="O13">
-        <v>0.2827480934208786</v>
+        <v>0.3434783342267227</v>
       </c>
       <c r="P13">
-        <v>0.2888103122968479</v>
+        <v>0.3521417722019025</v>
       </c>
       <c r="Q13">
-        <v>1287.692265192072</v>
+        <v>1807.138805726444</v>
       </c>
       <c r="R13">
-        <v>11589.23038672865</v>
+        <v>16264.249251538</v>
       </c>
       <c r="S13">
-        <v>0.03864057704288161</v>
+        <v>0.04601657662493996</v>
       </c>
       <c r="T13">
-        <v>0.04289370917546275</v>
+        <v>0.05147053717809742</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>17.926905</v>
+        <v>17.36323866666666</v>
       </c>
       <c r="H14">
-        <v>53.780715</v>
+        <v>52.089716</v>
       </c>
       <c r="I14">
-        <v>0.2732167446078023</v>
+        <v>0.2594201884346587</v>
       </c>
       <c r="J14">
-        <v>0.2969233152179209</v>
+        <v>0.2830283681059314</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>2.019046</v>
+        <v>10.836393</v>
       </c>
       <c r="N14">
-        <v>4.038092</v>
+        <v>21.672786</v>
       </c>
       <c r="O14">
-        <v>0.003975353327590414</v>
+        <v>0.01846862257356514</v>
       </c>
       <c r="P14">
-        <v>0.002707057536954368</v>
+        <v>0.01262296693390161</v>
       </c>
       <c r="Q14">
-        <v>36.19524583263</v>
+        <v>188.154877944796</v>
       </c>
       <c r="R14">
-        <v>217.17147499578</v>
+        <v>1128.929267668776</v>
       </c>
       <c r="S14">
-        <v>0.001086133094830047</v>
+        <v>0.004791133548162859</v>
       </c>
       <c r="T14">
-        <v>0.0008037884983581503</v>
+        <v>0.003572657731957305</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>17.926905</v>
+        <v>17.36323866666666</v>
       </c>
       <c r="H15">
-        <v>53.780715</v>
+        <v>52.089716</v>
       </c>
       <c r="I15">
-        <v>0.2732167446078023</v>
+        <v>0.2594201884346587</v>
       </c>
       <c r="J15">
-        <v>0.2969233152179209</v>
+        <v>0.2830283681059314</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>419.0844499999999</v>
       </c>
       <c r="O15">
-        <v>0.2750488370661026</v>
+        <v>0.2380839126543345</v>
       </c>
       <c r="P15">
-        <v>0.2809459811695414</v>
+        <v>0.2440890227431923</v>
       </c>
       <c r="Q15">
-        <v>2504.29570737575</v>
+        <v>2425.554442279577</v>
       </c>
       <c r="R15">
-        <v>22538.66136638175</v>
+        <v>21829.98998051619</v>
       </c>
       <c r="S15">
-        <v>0.07514794787136236</v>
+        <v>0.06176377348404829</v>
       </c>
       <c r="T15">
-        <v>0.0834194121260118</v>
+        <v>0.06908411777957731</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>17.926905</v>
+        <v>17.36323866666666</v>
       </c>
       <c r="H16">
-        <v>53.780715</v>
+        <v>52.089716</v>
       </c>
       <c r="I16">
-        <v>0.2732167446078023</v>
+        <v>0.2594201884346587</v>
       </c>
       <c r="J16">
-        <v>0.2969233152179209</v>
+        <v>0.2830283681059314</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>186.3548536666667</v>
+        <v>150.12088</v>
       </c>
       <c r="N16">
-        <v>559.064561</v>
+        <v>450.36264</v>
       </c>
       <c r="O16">
-        <v>0.3669190239530987</v>
+        <v>0.2558532043948076</v>
       </c>
       <c r="P16">
-        <v>0.3747858972750336</v>
+        <v>0.2623065033256284</v>
       </c>
       <c r="Q16">
-        <v>3340.765757971235</v>
+        <v>2606.584668290026</v>
       </c>
       <c r="R16">
-        <v>30066.89182174112</v>
+        <v>23459.26201461024</v>
       </c>
       <c r="S16">
-        <v>0.1002484212591378</v>
+        <v>0.06637348649571224</v>
       </c>
       <c r="T16">
-        <v>0.1112826711158261</v>
+        <v>0.07424018157982569</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>17.926905</v>
+        <v>17.36323866666666</v>
       </c>
       <c r="H17">
-        <v>53.780715</v>
+        <v>52.089716</v>
       </c>
       <c r="I17">
-        <v>0.2732167446078023</v>
+        <v>0.2594201884346587</v>
       </c>
       <c r="J17">
-        <v>0.2969233152179209</v>
+        <v>0.2830283681059314</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>29.9633245</v>
+        <v>32.469223</v>
       </c>
       <c r="N17">
-        <v>59.926649</v>
+        <v>64.938446</v>
       </c>
       <c r="O17">
-        <v>0.05899558591371686</v>
+        <v>0.05533777012737728</v>
       </c>
       <c r="P17">
-        <v>0.04017364805949665</v>
+        <v>0.03782235733776705</v>
       </c>
       <c r="Q17">
-        <v>537.1496717956725</v>
+        <v>563.7708682702225</v>
       </c>
       <c r="R17">
-        <v>3222.898030774035</v>
+        <v>3382.625209621336</v>
       </c>
       <c r="S17">
-        <v>0.01611858192957564</v>
+        <v>0.01435573475399804</v>
       </c>
       <c r="T17">
-        <v>0.01192849276622374</v>
+        <v>0.01070480007522761</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>17.926905</v>
+        <v>17.36323866666666</v>
       </c>
       <c r="H18">
-        <v>53.780715</v>
+        <v>52.089716</v>
       </c>
       <c r="I18">
-        <v>0.2732167446078023</v>
+        <v>0.2594201884346587</v>
       </c>
       <c r="J18">
-        <v>0.2969233152179209</v>
+        <v>0.2830283681059314</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>6.253715333333333</v>
+        <v>52.09024033333333</v>
       </c>
       <c r="N18">
-        <v>18.761146</v>
+        <v>156.270721</v>
       </c>
       <c r="O18">
-        <v>0.01231310631861278</v>
+        <v>0.08877815602319267</v>
       </c>
       <c r="P18">
-        <v>0.0125771036621259</v>
+        <v>0.09101737745760805</v>
       </c>
       <c r="Q18">
-        <v>112.10976067771</v>
+        <v>904.4552751116927</v>
       </c>
       <c r="R18">
-        <v>1008.98784609939</v>
+        <v>8140.097476005234</v>
       </c>
       <c r="S18">
-        <v>0.003364146824381145</v>
+        <v>0.02303084596441817</v>
       </c>
       <c r="T18">
-        <v>0.003734435315197875</v>
+        <v>0.02576049981110839</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>17.926905</v>
+        <v>17.36323866666666</v>
       </c>
       <c r="H19">
-        <v>53.780715</v>
+        <v>52.089716</v>
       </c>
       <c r="I19">
-        <v>0.2732167446078023</v>
+        <v>0.2594201884346587</v>
       </c>
       <c r="J19">
-        <v>0.2969233152179209</v>
+        <v>0.2830283681059314</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>143.6051993333333</v>
+        <v>201.5345866666667</v>
       </c>
       <c r="N19">
-        <v>430.815598</v>
+        <v>604.60376</v>
       </c>
       <c r="O19">
-        <v>0.2827480934208786</v>
+        <v>0.3434783342267227</v>
       </c>
       <c r="P19">
-        <v>0.2888103122968479</v>
+        <v>0.3521417722019025</v>
       </c>
       <c r="Q19">
-        <v>2574.39676595473</v>
+        <v>3499.29312788135</v>
       </c>
       <c r="R19">
-        <v>23169.57089359257</v>
+        <v>31493.63815093215</v>
       </c>
       <c r="S19">
-        <v>0.07725151362851522</v>
+        <v>0.0891052141883191</v>
       </c>
       <c r="T19">
-        <v>0.08575451539630315</v>
+        <v>0.0996661111282351</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>6.720546499999999</v>
+        <v>6.601931</v>
       </c>
       <c r="H20">
-        <v>13.441093</v>
+        <v>13.203862</v>
       </c>
       <c r="I20">
-        <v>0.1024251445921847</v>
+        <v>0.09863794519743292</v>
       </c>
       <c r="J20">
-        <v>0.07420827137966443</v>
+        <v>0.07174290438742112</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>2.019046</v>
+        <v>10.836393</v>
       </c>
       <c r="N20">
-        <v>4.038092</v>
+        <v>21.672786</v>
       </c>
       <c r="O20">
-        <v>0.003975353327590414</v>
+        <v>0.01846862257356514</v>
       </c>
       <c r="P20">
-        <v>0.002707057536954368</v>
+        <v>0.01262296693390161</v>
       </c>
       <c r="Q20">
-        <v>13.569092528639</v>
+        <v>71.54111887488301</v>
       </c>
       <c r="R20">
-        <v>54.27637011455599</v>
+        <v>286.164475499532</v>
       </c>
       <c r="S20">
-        <v>0.0004071761393834708</v>
+        <v>0.00182170698128339</v>
       </c>
       <c r="T20">
-        <v>0.0002008860603426757</v>
+        <v>0.0009056083098244814</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>6.720546499999999</v>
+        <v>6.601931</v>
       </c>
       <c r="H21">
-        <v>13.441093</v>
+        <v>13.203862</v>
       </c>
       <c r="I21">
-        <v>0.1024251445921847</v>
+        <v>0.09863794519743292</v>
       </c>
       <c r="J21">
-        <v>0.07420827137966443</v>
+        <v>0.07174290438742112</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>419.0844499999999</v>
       </c>
       <c r="O21">
-        <v>0.2750488370661026</v>
+        <v>0.2380839126543345</v>
       </c>
       <c r="P21">
-        <v>0.2809459811695414</v>
+        <v>0.2440890227431923</v>
       </c>
       <c r="Q21">
-        <v>938.8255112173081</v>
+        <v>922.2555406909833</v>
       </c>
       <c r="R21">
-        <v>5632.953067303849</v>
+        <v>5533.5332441459</v>
       </c>
       <c r="S21">
-        <v>0.02817191690640781</v>
+        <v>0.02348410792878866</v>
       </c>
       <c r="T21">
-        <v>0.02084851561365542</v>
+        <v>0.01751165542068391</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>6.720546499999999</v>
+        <v>6.601931</v>
       </c>
       <c r="H22">
-        <v>13.441093</v>
+        <v>13.203862</v>
       </c>
       <c r="I22">
-        <v>0.1024251445921847</v>
+        <v>0.09863794519743292</v>
       </c>
       <c r="J22">
-        <v>0.07420827137966443</v>
+        <v>0.07174290438742112</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>186.3548536666667</v>
+        <v>150.12088</v>
       </c>
       <c r="N22">
-        <v>559.064561</v>
+        <v>450.36264</v>
       </c>
       <c r="O22">
-        <v>0.3669190239530987</v>
+        <v>0.2558532043948076</v>
       </c>
       <c r="P22">
-        <v>0.3747858972750336</v>
+        <v>0.2623065033256284</v>
       </c>
       <c r="Q22">
-        <v>1252.406459567529</v>
+        <v>991.0876914192801</v>
       </c>
       <c r="R22">
-        <v>7514.438757405173</v>
+        <v>5946.526148515681</v>
       </c>
       <c r="S22">
-        <v>0.03758173408201942</v>
+        <v>0.02523683435368264</v>
       </c>
       <c r="T22">
-        <v>0.02781221357425673</v>
+        <v>0.01881863038828932</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>6.720546499999999</v>
+        <v>6.601931</v>
       </c>
       <c r="H23">
-        <v>13.441093</v>
+        <v>13.203862</v>
       </c>
       <c r="I23">
-        <v>0.1024251445921847</v>
+        <v>0.09863794519743292</v>
       </c>
       <c r="J23">
-        <v>0.07420827137966443</v>
+        <v>0.07174290438742112</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>29.9633245</v>
+        <v>32.469223</v>
       </c>
       <c r="N23">
-        <v>59.926649</v>
+        <v>64.938446</v>
       </c>
       <c r="O23">
-        <v>0.05899558591371686</v>
+        <v>0.05533777012737728</v>
       </c>
       <c r="P23">
-        <v>0.04017364805949665</v>
+        <v>0.03782235733776705</v>
       </c>
       <c r="Q23">
-        <v>201.3699155968392</v>
+        <v>214.359569869613</v>
       </c>
       <c r="R23">
-        <v>805.4796623873569</v>
+        <v>857.438279478452</v>
       </c>
       <c r="S23">
-        <v>0.006042631417513105</v>
+        <v>0.00545840393717238</v>
       </c>
       <c r="T23">
-        <v>0.002981216977510257</v>
+        <v>0.002713485766190297</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>6.720546499999999</v>
+        <v>6.601931</v>
       </c>
       <c r="H24">
-        <v>13.441093</v>
+        <v>13.203862</v>
       </c>
       <c r="I24">
-        <v>0.1024251445921847</v>
+        <v>0.09863794519743292</v>
       </c>
       <c r="J24">
-        <v>0.07420827137966443</v>
+        <v>0.07174290438742112</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>6.253715333333333</v>
+        <v>52.09024033333333</v>
       </c>
       <c r="N24">
-        <v>18.761146</v>
+        <v>156.270721</v>
       </c>
       <c r="O24">
-        <v>0.01231310631861278</v>
+        <v>0.08877815602319267</v>
       </c>
       <c r="P24">
-        <v>0.0125771036621259</v>
+        <v>0.09101737745760805</v>
       </c>
       <c r="Q24">
-        <v>42.02838469542966</v>
+        <v>343.8961724540836</v>
       </c>
       <c r="R24">
-        <v>252.170308172578</v>
+        <v>2063.377034724502</v>
       </c>
       <c r="S24">
-        <v>0.001261171695062857</v>
+        <v>0.008756894888544827</v>
       </c>
       <c r="T24">
-        <v>0.00093332512172921</v>
+        <v>0.006529851008534992</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>6.720546499999999</v>
+        <v>6.601931</v>
       </c>
       <c r="H25">
-        <v>13.441093</v>
+        <v>13.203862</v>
       </c>
       <c r="I25">
-        <v>0.1024251445921847</v>
+        <v>0.09863794519743292</v>
       </c>
       <c r="J25">
-        <v>0.07420827137966443</v>
+        <v>0.07174290438742112</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>143.6051993333333</v>
+        <v>201.5345866666667</v>
       </c>
       <c r="N25">
-        <v>430.815598</v>
+        <v>604.60376</v>
       </c>
       <c r="O25">
-        <v>0.2827480934208786</v>
+        <v>0.3434783342267227</v>
       </c>
       <c r="P25">
-        <v>0.2888103122968479</v>
+        <v>0.3521417722019025</v>
       </c>
       <c r="Q25">
-        <v>965.1054197614355</v>
+        <v>1330.517435286853</v>
       </c>
       <c r="R25">
-        <v>5790.632518568614</v>
+        <v>7983.10461172112</v>
       </c>
       <c r="S25">
-        <v>0.02896051435179805</v>
+        <v>0.03387999710796102</v>
       </c>
       <c r="T25">
-        <v>0.02143211403217013</v>
+        <v>0.02526367349389812</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,16 +2031,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>5.796674333333333</v>
+        <v>5.391932333333334</v>
       </c>
       <c r="H26">
-        <v>17.390023</v>
+        <v>16.175797</v>
       </c>
       <c r="I26">
-        <v>0.08834478070280039</v>
+        <v>0.080559631114533</v>
       </c>
       <c r="J26">
-        <v>0.09601031300673288</v>
+        <v>0.0878908502346763</v>
       </c>
       <c r="K26">
         <v>2</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>2.019046</v>
+        <v>10.836393</v>
       </c>
       <c r="N26">
-        <v>4.038092</v>
+        <v>21.672786</v>
       </c>
       <c r="O26">
-        <v>0.003975353327590414</v>
+        <v>0.01846862257356514</v>
       </c>
       <c r="P26">
-        <v>0.002707057536954368</v>
+        <v>0.01262296693390161</v>
       </c>
       <c r="Q26">
-        <v>11.70375212601933</v>
+        <v>58.42909779340701</v>
       </c>
       <c r="R26">
-        <v>70.22251275611599</v>
+        <v>350.5745867604421</v>
       </c>
       <c r="S26">
-        <v>0.0003512017179421229</v>
+        <v>0.001487825421719944</v>
       </c>
       <c r="T26">
-        <v>0.0002599054414502242</v>
+        <v>0.001109443296304817</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>5.796674333333333</v>
+        <v>5.391932333333334</v>
       </c>
       <c r="H27">
-        <v>17.390023</v>
+        <v>16.175797</v>
       </c>
       <c r="I27">
-        <v>0.08834478070280039</v>
+        <v>0.080559631114533</v>
       </c>
       <c r="J27">
-        <v>0.09601031300673288</v>
+        <v>0.0878908502346763</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>419.0844499999999</v>
       </c>
       <c r="O27">
-        <v>0.2750488370661026</v>
+        <v>0.2380839126543345</v>
       </c>
       <c r="P27">
-        <v>0.2809459811695414</v>
+        <v>0.2440890227431923</v>
       </c>
       <c r="Q27">
-        <v>809.765358271372</v>
+        <v>753.2249987840721</v>
       </c>
       <c r="R27">
-        <v>7287.888224442348</v>
+        <v>6779.02498905665</v>
       </c>
       <c r="S27">
-        <v>0.0242991291931651</v>
+        <v>0.01917995217773789</v>
       </c>
       <c r="T27">
-        <v>0.02697371159007135</v>
+        <v>0.02145319174185041</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,16 +2155,16 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>5.796674333333333</v>
+        <v>5.391932333333334</v>
       </c>
       <c r="H28">
-        <v>17.390023</v>
+        <v>16.175797</v>
       </c>
       <c r="I28">
-        <v>0.08834478070280039</v>
+        <v>0.080559631114533</v>
       </c>
       <c r="J28">
-        <v>0.09601031300673288</v>
+        <v>0.0878908502346763</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>186.3548536666667</v>
+        <v>150.12088</v>
       </c>
       <c r="N28">
-        <v>559.064561</v>
+        <v>450.36264</v>
       </c>
       <c r="O28">
-        <v>0.3669190239530987</v>
+        <v>0.2558532043948076</v>
       </c>
       <c r="P28">
-        <v>0.3747858972750336</v>
+        <v>0.2623065033256284</v>
       </c>
       <c r="Q28">
-        <v>1080.238397141656</v>
+        <v>809.4416267804535</v>
       </c>
       <c r="R28">
-        <v>9722.145574274904</v>
+        <v>7284.974641024081</v>
       </c>
       <c r="S28">
-        <v>0.03241538070682207</v>
+        <v>0.02061143976551692</v>
       </c>
       <c r="T28">
-        <v>0.03598331130788521</v>
+        <v>0.02305434159937443</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>5.796674333333333</v>
+        <v>5.391932333333334</v>
       </c>
       <c r="H29">
-        <v>17.390023</v>
+        <v>16.175797</v>
       </c>
       <c r="I29">
-        <v>0.08834478070280039</v>
+        <v>0.080559631114533</v>
       </c>
       <c r="J29">
-        <v>0.09601031300673288</v>
+        <v>0.0878908502346763</v>
       </c>
       <c r="K29">
         <v>2</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>29.9633245</v>
+        <v>32.469223</v>
       </c>
       <c r="N29">
-        <v>59.926649</v>
+        <v>64.938446</v>
       </c>
       <c r="O29">
-        <v>0.05899558591371686</v>
+        <v>0.05533777012737728</v>
       </c>
       <c r="P29">
-        <v>0.04017364805949665</v>
+        <v>0.03782235733776705</v>
       </c>
       <c r="Q29">
-        <v>173.6876340704878</v>
+        <v>175.0718533319103</v>
       </c>
       <c r="R29">
-        <v>1042.125804422927</v>
+        <v>1050.431119991462</v>
       </c>
       <c r="S29">
-        <v>0.005211952099980536</v>
+        <v>0.004457990348162337</v>
       </c>
       <c r="T29">
-        <v>0.0038570845248146</v>
+        <v>0.003324239144296094</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>5.796674333333333</v>
+        <v>5.391932333333334</v>
       </c>
       <c r="H30">
-        <v>17.390023</v>
+        <v>16.175797</v>
       </c>
       <c r="I30">
-        <v>0.08834478070280039</v>
+        <v>0.080559631114533</v>
       </c>
       <c r="J30">
-        <v>0.09601031300673288</v>
+        <v>0.0878908502346763</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>6.253715333333333</v>
+        <v>52.09024033333333</v>
       </c>
       <c r="N30">
-        <v>18.761146</v>
+        <v>156.270721</v>
       </c>
       <c r="O30">
-        <v>0.01231310631861278</v>
+        <v>0.08877815602319267</v>
       </c>
       <c r="P30">
-        <v>0.0125771036621259</v>
+        <v>0.09101737745760805</v>
       </c>
       <c r="Q30">
-        <v>36.25075116070644</v>
+        <v>280.8670511044041</v>
       </c>
       <c r="R30">
-        <v>326.256760446358</v>
+        <v>2527.803459939637</v>
       </c>
       <c r="S30">
-        <v>0.001087798677488112</v>
+        <v>0.007151935500256858</v>
       </c>
       <c r="T30">
-        <v>0.001207531659318834</v>
+        <v>0.007999594690879632</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,16 +2341,16 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>5.796674333333333</v>
+        <v>5.391932333333334</v>
       </c>
       <c r="H31">
-        <v>17.390023</v>
+        <v>16.175797</v>
       </c>
       <c r="I31">
-        <v>0.08834478070280039</v>
+        <v>0.080559631114533</v>
       </c>
       <c r="J31">
-        <v>0.09601031300673288</v>
+        <v>0.0878908502346763</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>143.6051993333333</v>
+        <v>201.5345866666667</v>
       </c>
       <c r="N31">
-        <v>430.815598</v>
+        <v>604.60376</v>
       </c>
       <c r="O31">
-        <v>0.2827480934208786</v>
+        <v>0.3434783342267227</v>
       </c>
       <c r="P31">
-        <v>0.2888103122968479</v>
+        <v>0.3521417722019025</v>
       </c>
       <c r="Q31">
-        <v>832.4325731087504</v>
+        <v>1086.660854132969</v>
       </c>
       <c r="R31">
-        <v>7491.893157978754</v>
+        <v>9779.947687196722</v>
       </c>
       <c r="S31">
-        <v>0.02497931830740244</v>
+        <v>0.02767048790113906</v>
       </c>
       <c r="T31">
-        <v>0.02772876848319265</v>
+        <v>0.03095003976197091</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2403,16 +2403,16 @@
         <v>1</v>
       </c>
       <c r="G32">
-        <v>17.20769366666667</v>
+        <v>18.460197</v>
       </c>
       <c r="H32">
-        <v>51.623081</v>
+        <v>55.380591</v>
       </c>
       <c r="I32">
-        <v>0.2622555341156191</v>
+        <v>0.2758095926812649</v>
       </c>
       <c r="J32">
-        <v>0.2850110183972687</v>
+        <v>0.3009092676848542</v>
       </c>
       <c r="K32">
         <v>2</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>2.019046</v>
+        <v>10.836393</v>
       </c>
       <c r="N32">
-        <v>4.038092</v>
+        <v>21.672786</v>
       </c>
       <c r="O32">
-        <v>0.003975353327590414</v>
+        <v>0.01846862257356514</v>
       </c>
       <c r="P32">
-        <v>0.002707057536954368</v>
+        <v>0.01262296693390161</v>
       </c>
       <c r="Q32">
-        <v>34.74312506690867</v>
+        <v>200.041949549421</v>
       </c>
       <c r="R32">
-        <v>208.458750401452</v>
+        <v>1200.251697296526</v>
       </c>
       <c r="S32">
-        <v>0.001042558410225528</v>
+        <v>0.005093823269399014</v>
       </c>
       <c r="T32">
-        <v>0.0007715412254673662</v>
+        <v>0.003798367736090462</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2465,16 +2465,16 @@
         <v>1</v>
       </c>
       <c r="G33">
-        <v>17.20769366666667</v>
+        <v>18.460197</v>
       </c>
       <c r="H33">
-        <v>51.623081</v>
+        <v>55.380591</v>
       </c>
       <c r="I33">
-        <v>0.2622555341156191</v>
+        <v>0.2758095926812649</v>
       </c>
       <c r="J33">
-        <v>0.2850110183972687</v>
+        <v>0.3009092676848542</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2489,22 +2489,22 @@
         <v>419.0844499999999</v>
       </c>
       <c r="O33">
-        <v>0.2750488370661026</v>
+        <v>0.2380839126543345</v>
       </c>
       <c r="P33">
-        <v>0.2809459811695414</v>
+        <v>0.2440890227431923</v>
       </c>
       <c r="Q33">
-        <v>2403.825612021161</v>
+        <v>2578.793835545549</v>
       </c>
       <c r="R33">
-        <v>21634.43050819045</v>
+        <v>23209.14451990995</v>
       </c>
       <c r="S33">
-        <v>0.07213307967265063</v>
+        <v>0.06566582697315385</v>
       </c>
       <c r="T33">
-        <v>0.08007270020775085</v>
+        <v>0.07344864908356573</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2527,16 +2527,16 @@
         <v>1</v>
       </c>
       <c r="G34">
-        <v>17.20769366666667</v>
+        <v>18.460197</v>
       </c>
       <c r="H34">
-        <v>51.623081</v>
+        <v>55.380591</v>
       </c>
       <c r="I34">
-        <v>0.2622555341156191</v>
+        <v>0.2758095926812649</v>
       </c>
       <c r="J34">
-        <v>0.2850110183972687</v>
+        <v>0.3009092676848542</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>186.3548536666667</v>
+        <v>150.12088</v>
       </c>
       <c r="N34">
-        <v>559.064561</v>
+        <v>450.36264</v>
       </c>
       <c r="O34">
-        <v>0.3669190239530987</v>
+        <v>0.2558532043948076</v>
       </c>
       <c r="P34">
-        <v>0.3747858972750336</v>
+        <v>0.2623065033256284</v>
       </c>
       <c r="Q34">
-        <v>3206.737235192494</v>
+        <v>2771.26101861336</v>
       </c>
       <c r="R34">
-        <v>28860.63511673244</v>
+        <v>24941.34916752024</v>
       </c>
       <c r="S34">
-        <v>0.09622654460400154</v>
+        <v>0.0705667680903283</v>
       </c>
       <c r="T34">
-        <v>0.1068181102632915</v>
+        <v>0.07893045782468963</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2589,16 +2589,16 @@
         <v>1</v>
       </c>
       <c r="G35">
-        <v>17.20769366666667</v>
+        <v>18.460197</v>
       </c>
       <c r="H35">
-        <v>51.623081</v>
+        <v>55.380591</v>
       </c>
       <c r="I35">
-        <v>0.2622555341156191</v>
+        <v>0.2758095926812649</v>
       </c>
       <c r="J35">
-        <v>0.2850110183972687</v>
+        <v>0.3009092676848542</v>
       </c>
       <c r="K35">
         <v>2</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>29.9633245</v>
+        <v>32.469223</v>
       </c>
       <c r="N35">
-        <v>59.926649</v>
+        <v>64.938446</v>
       </c>
       <c r="O35">
-        <v>0.05899558591371686</v>
+        <v>0.05533777012737728</v>
       </c>
       <c r="P35">
-        <v>0.04017364805949665</v>
+        <v>0.03782235733776705</v>
       </c>
       <c r="Q35">
-        <v>515.5997092309282</v>
+        <v>599.388253016931</v>
       </c>
       <c r="R35">
-        <v>3093.598255385569</v>
+        <v>3596.329518101586</v>
       </c>
       <c r="S35">
-        <v>0.01547191889426571</v>
+        <v>0.01526268783872139</v>
       </c>
       <c r="T35">
-        <v>0.0114499323461706</v>
+        <v>0.01138109784862236</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2651,16 +2651,16 @@
         <v>1</v>
       </c>
       <c r="G36">
-        <v>17.20769366666667</v>
+        <v>18.460197</v>
       </c>
       <c r="H36">
-        <v>51.623081</v>
+        <v>55.380591</v>
       </c>
       <c r="I36">
-        <v>0.2622555341156191</v>
+        <v>0.2758095926812649</v>
       </c>
       <c r="J36">
-        <v>0.2850110183972687</v>
+        <v>0.3009092676848542</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>6.253715333333333</v>
+        <v>52.09024033333333</v>
       </c>
       <c r="N36">
-        <v>18.761146</v>
+        <v>156.270721</v>
       </c>
       <c r="O36">
-        <v>0.01231310631861278</v>
+        <v>0.08877815602319267</v>
       </c>
       <c r="P36">
-        <v>0.0125771036621259</v>
+        <v>0.09101737745760805</v>
       </c>
       <c r="Q36">
-        <v>107.6120177345362</v>
+        <v>961.596098330679</v>
       </c>
       <c r="R36">
-        <v>968.5081596108259</v>
+        <v>8654.36488497611</v>
       </c>
       <c r="S36">
-        <v>0.0032291802742102</v>
+        <v>0.02448586705175055</v>
       </c>
       <c r="T36">
-        <v>0.003584613123230519</v>
+        <v>0.02738797239736479</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2713,16 +2713,16 @@
         <v>1</v>
       </c>
       <c r="G37">
-        <v>17.20769366666667</v>
+        <v>18.460197</v>
       </c>
       <c r="H37">
-        <v>51.623081</v>
+        <v>55.380591</v>
       </c>
       <c r="I37">
-        <v>0.2622555341156191</v>
+        <v>0.2758095926812649</v>
       </c>
       <c r="J37">
-        <v>0.2850110183972687</v>
+        <v>0.3009092676848542</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>143.6051993333333</v>
+        <v>201.5345866666667</v>
       </c>
       <c r="N37">
-        <v>430.815598</v>
+        <v>604.60376</v>
       </c>
       <c r="O37">
-        <v>0.2827480934208786</v>
+        <v>0.3434783342267227</v>
       </c>
       <c r="P37">
-        <v>0.2888103122968479</v>
+        <v>0.3521417722019025</v>
       </c>
       <c r="Q37">
-        <v>2471.114279068604</v>
+        <v>3720.36817218024</v>
       </c>
       <c r="R37">
-        <v>22240.02851161744</v>
+        <v>33483.31354962216</v>
       </c>
       <c r="S37">
-        <v>0.07415225226026551</v>
+        <v>0.09473461945791176</v>
       </c>
       <c r="T37">
-        <v>0.08231412123135784</v>
+        <v>0.1059627227945212</v>
       </c>
     </row>
   </sheetData>
